--- a/medicine/Enfance/Komako_Sakaï/Komako_Sakaï.xlsx
+++ b/medicine/Enfance/Komako_Sakaï/Komako_Sakaï.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Komako_Saka%C3%AF</t>
+          <t>Komako_Sakaï</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Komako Sakaï (酒井 駒子, Sakai Komako?) est une autrice et illustratrice pour enfants japonaise née dans la province de Hyōgo en 1966. Elle a reçu, entre autres prix, le Japan Picture Book Award pour son illustration de La Fée des renards[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Komako Sakaï (酒井 駒子, Sakai Komako?) est une autrice et illustratrice pour enfants japonaise née dans la province de Hyōgo en 1966. Elle a reçu, entre autres prix, le Japan Picture Book Award pour son illustration de La Fée des renards,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Komako_Saka%C3%AF</t>
+          <t>Komako_Sakaï</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,15 +525,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Textes et illustrations
-2005 : Un amour de ballon, L'École des loisirs
+          <t>Textes et illustrations</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2005 : Un amour de ballon, L'École des loisirs
 2006 : Moi, ma maman, La Joie de lire
 2006 : Jour de neige, L'École des loisirs
 2010 : Ecoute-moi !, L'École des loisirs
 2013 : Réveillés les premiers !, L'École des loisirs
-2017 : Le petit chat de Lina, l'École des loisirs
-Illustrations
-2006 : Ne bouge pas !, texte de Hatsue Nakawaki, L'École des loisirs
+2017 : Le petit chat de Lina, l'École des loisirs</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Komako_Sakaï</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Komako_Saka%C3%AF</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ouvrages traduits en français</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2006 : Ne bouge pas !, texte de Hatsue Nakawaki, L'École des loisirs
 2006 : La Fée des renards, texte de Kimiko Aman, adaptation française de Florence Seyvos, L'École des loisirs
 2008 : Le Lapin en peluche, texte adapté du Lapin de velours (en) de Margery Williams, L'École des loisirs
 2009 : L'ours et le chat sauvage, texte de Kazumi Yumoto, l'École des loisirs
@@ -532,37 +583,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Komako_Saka%C3%AF</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Komako_Sakaï</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Komako_Saka%C3%AF</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Japan Picture Book Award pour son illustration de La Fée des renards[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Japan Picture Book Award pour son illustration de La Fée des renards
  Prix Pitchou pour  Moi, ma maman 
- Silver Pencil Book Award (Pays-Bas) 2009 pour Jour de neige[1]
- Premio nazionale Nati per Leggere 2015[3] du Salon international du livre de Turin pour Un amour de ballon
- Premio nazionale Nati per Leggere 2017[3] du Salon international du livre de Turin pour Ne bouge pas !, texte de Hatsue Nakawaki</t>
+ Silver Pencil Book Award (Pays-Bas) 2009 pour Jour de neige
+ Premio nazionale Nati per Leggere 2015 du Salon international du livre de Turin pour Un amour de ballon
+ Premio nazionale Nati per Leggere 2017 du Salon international du livre de Turin pour Ne bouge pas !, texte de Hatsue Nakawaki</t>
         </is>
       </c>
     </row>
